--- a/Output/Results_Growth/Bootstrap.xlsx
+++ b/Output/Results_Growth/Bootstrap.xlsx
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.30613073094379</v>
+        <v>11.39105015937049</v>
       </c>
       <c r="E2" t="n">
-        <v>9.819275569913009</v>
+        <v>12.67955545053181</v>
       </c>
       <c r="F2" t="n">
-        <v>4.731723193243857</v>
+        <v>4.716574745872609</v>
       </c>
       <c r="G2" t="n">
-        <v>33.40578855940495</v>
+        <v>33.21354563839127</v>
       </c>
     </row>
     <row r="3">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>216.3736596751829</v>
+        <v>214.0332689286931</v>
       </c>
       <c r="E3" t="n">
-        <v>59.58502292108761</v>
+        <v>61.53973609160802</v>
       </c>
       <c r="F3" t="n">
-        <v>140.2090190121091</v>
+        <v>140.4030559482368</v>
       </c>
       <c r="G3" t="n">
-        <v>371.4453376134341</v>
+        <v>370.4503900564675</v>
       </c>
     </row>
     <row r="4">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.007744316062476091</v>
+        <v>0.007814460086516158</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001615845585034305</v>
+        <v>0.001607814820101307</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004676293886534693</v>
+        <v>0.004729287227916579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01104283704313808</v>
+        <v>0.01102698069558835</v>
       </c>
     </row>
     <row r="5">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.670173105784168</v>
+        <v>7.566297892528803</v>
       </c>
       <c r="E5" t="n">
-        <v>1.459244400936082</v>
+        <v>1.412254356918572</v>
       </c>
       <c r="F5" t="n">
-        <v>5.529968018375685</v>
+        <v>5.580657188238106</v>
       </c>
       <c r="G5" t="n">
-        <v>11.26530318887987</v>
+        <v>10.7603755364055</v>
       </c>
     </row>
     <row r="6">
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150.8542831850525</v>
+        <v>149.7389349404785</v>
       </c>
       <c r="E6" t="n">
-        <v>16.12127213678811</v>
+        <v>15.4816057204383</v>
       </c>
       <c r="F6" t="n">
-        <v>124.7552830686696</v>
+        <v>125.3547143573327</v>
       </c>
       <c r="G6" t="n">
-        <v>187.6930141425913</v>
+        <v>183.9746990401623</v>
       </c>
     </row>
     <row r="7">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01109991140107486</v>
+        <v>0.01117598469889297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001270322300729894</v>
+        <v>0.001229622910546811</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008721411323456208</v>
+        <v>0.008903264917337863</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01356320530915605</v>
+        <v>0.01357684854619632</v>
       </c>
     </row>
   </sheetData>
